--- a/Lab2/Lab2 Gantt.xlsx
+++ b/Lab2/Lab2 Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castia\Documents\GitHub\ee478\Lab 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rynmcd\Documents\GitHub\ee478\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -557,7 +557,7 @@
                   <c:v>41759</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41761</c:v>
+                  <c:v>41760</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>41746</c:v>
@@ -873,7 +873,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1</c:v>
@@ -898,11 +898,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="286215920"/>
-        <c:axId val="286216312"/>
+        <c:axId val="170786008"/>
+        <c:axId val="170812920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286215920"/>
+        <c:axId val="170786008"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -945,7 +945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286216312"/>
+        <c:crossAx val="170812920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -953,7 +953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286216312"/>
+        <c:axId val="170812920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41763"/>
@@ -1006,7 +1006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286215920"/>
+        <c:crossAx val="170786008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1603,15 +1603,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,10 +2424,10 @@
         <v>41759</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>41761</v>
+        <v>41760</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,13 +2436,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>41761</v>
+        <v>41760</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
